--- a/excel/themtaikhoan.xlsx
+++ b/excel/themtaikhoan.xlsx
@@ -41,10 +41,10 @@
     <t>Nhóm quyền</t>
   </si>
   <si>
-    <t>nhanvien8</t>
+    <t>chinhnguvlon</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>abc</t>
   </si>
   <si>
     <t>nhanvien9</t>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>

--- a/excel/themtaikhoan.xlsx
+++ b/excel/themtaikhoan.xlsx
@@ -41,13 +41,13 @@
     <t>Nhóm quyền</t>
   </si>
   <si>
-    <t>chinhnguvlon</t>
+    <t>sau</t>
   </si>
   <si>
     <t>abc</t>
   </si>
   <si>
-    <t>nhanvien9</t>
+    <t>muoimot</t>
   </si>
   <si>
     <t>Quản lý kho</t>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/excel/themtaikhoan.xlsx
+++ b/excel/themtaikhoan.xlsx
@@ -47,7 +47,7 @@
     <t>abc</t>
   </si>
   <si>
-    <t>muoimot</t>
+    <t>muoimotcongba</t>
   </si>
   <si>
     <t>Quản lý kho</t>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
